--- a/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,76 +66,76 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>0.6691555555555564 - 0.45600000000000007y_1 + 0.7857777777777776y_2</t>
-  </si>
-  <si>
-    <t>-0.6691555555555564</t>
+    <t>0.7328737368967793 - 0.3176881669657191y_1 + 0.46557748607045046y_2</t>
+  </si>
+  <si>
+    <t>-0.7328737368967793</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.35</t>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>6.7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>-2.4206000000000003 + 0.6759999999999999y_1 - 0.4679999999999999y_2</t>
-  </si>
-  <si>
-    <t>-1.5793999999999997</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>20.482599999999998 - 2x - 1.1959999999999997y_1 + 0.8280000000000007y_2</t>
-  </si>
-  <si>
-    <t>-36.4826</t>
+    <t>-0.7328737368967793 + 0.3176881669657191y_1 - 0.46557748607045046y_2</t>
+  </si>
+  <si>
+    <t>-3.2671262631032207</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>5.8999999999999995</t>
+  </si>
+  <si>
+    <t>15.66328265180848 - 2x - 1.5446217773160824y_1 + 2.2636698460666733y_2</t>
+  </si>
+  <si>
+    <t>-31.66328265180848</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>-69.3236 + 8x + 0.856y_1 - 0.208y_2</t>
-  </si>
-  <si>
-    <t>20.653599999999997</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>-49.83287373689678 + 8x + 0.3176881669657191y_1 - 0.46557748607045046y_2</t>
+  </si>
+  <si>
+    <t>1.1328737368967778</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.8999999999999999</t>
-  </si>
-  <si>
-    <t>5.187911111111112 - 2x - 1.072y_1 + 1.3404444444444443y_2</t>
-  </si>
-  <si>
-    <t>-6.812088888888888</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1.4000000000000001</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>10.434252526206443 - 2x - 0.6353763339314382y_1 + 0.9311549721409009y_2</t>
+  </si>
+  <si>
+    <t>-1.5657474737935582</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
   <si>
     <t>x</t>
@@ -147,34 +147,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.9894</t>
-  </si>
-  <si>
-    <t>-0.3764222222222228</t>
+    <t>2.0198885636037396</t>
+  </si>
+  <si>
+    <t>-1.4946642742468603</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>3.977599999999999</t>
-  </si>
-  <si>
-    <t>-2.6768000000000054</t>
+    <t>-57.400000000000006</t>
+  </si>
+  <si>
+    <t>4.331003871942582</t>
+  </si>
+  <si>
+    <t>-3.9506091226744746</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -648,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -668,7 +668,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -685,10 +685,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -705,10 +705,10 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -827,12 +827,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2.34</v>
+        <v>1.7399999999999998</v>
       </c>
     </row>
   </sheetData>
